--- a/results/Semaine Olympique Francaise De Voile 2018_49er.xlsx
+++ b/results/Semaine Olympique Francaise De Voile 2018_49er.xlsx
@@ -295,10 +295,10 @@
     <t>35.0</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>MR</t>
+    <t>GERAL</t>
+  </si>
+  <si>
+    <t>MEDAL RACE</t>
   </si>
   <si>
     <t>BFD</t>
